--- a/examples/20150225_1138/20150225_1138_vs_20140924_1535.xlsx
+++ b/examples/20150225_1138/20150225_1138_vs_20140924_1535.xlsx
@@ -184,7 +184,7 @@
     <t>delta</t>
   </si>
   <si>
-    <t>dxelta</t>
+    <t>detla</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1284,8 +1284,8 @@
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
